--- a/AndroidAutomation_Farmer/src/main/resources/API_Testdata.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/API_Testdata.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nitara Automation Farmer\AndroidAutomation_Farmer\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31D019-0E42-4EB1-9445-91A1E9D56838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6CD35670-51DD-4981-B74B-62291427FF3F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="RegMilkingDryCattle" sheetId="2" r:id="rId1"/>
     <sheet name="GeneralData" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>tagNumber</t>
   </si>
@@ -175,349 +169,70 @@
     <t>RegisterMilkingCattle_Inseminated</t>
   </si>
   <si>
-    <t>5ffefa0c-cad2-4d87-a242-b013b3bce836</t>
-  </si>
-  <si>
-    <t>87262273</t>
-  </si>
-  <si>
-    <t>818671945005</t>
-  </si>
-  <si>
-    <t>68934564</t>
-  </si>
-  <si>
-    <t>407608754182</t>
-  </si>
-  <si>
-    <t>43142062</t>
-  </si>
-  <si>
-    <t>631761063333</t>
-  </si>
-  <si>
-    <t>97540775</t>
-  </si>
-  <si>
-    <t>049373708860</t>
-  </si>
-  <si>
-    <t>12190338</t>
-  </si>
-  <si>
-    <t>270917124097</t>
-  </si>
-  <si>
-    <t>41686354</t>
-  </si>
-  <si>
-    <t>882870751242</t>
-  </si>
-  <si>
-    <t>13222716</t>
-  </si>
-  <si>
-    <t>442763864375</t>
-  </si>
-  <si>
-    <t>76844632</t>
-  </si>
-  <si>
-    <t>737290730065</t>
-  </si>
-  <si>
-    <t>66242054</t>
-  </si>
-  <si>
-    <t>826728238573</t>
-  </si>
-  <si>
-    <t>32406730</t>
-  </si>
-  <si>
-    <t>410247664403</t>
-  </si>
-  <si>
-    <t>84887215</t>
-  </si>
-  <si>
-    <t>267481627523</t>
-  </si>
-  <si>
-    <t>94421626</t>
-  </si>
-  <si>
-    <t>536480618062</t>
-  </si>
-  <si>
-    <t>31675604</t>
-  </si>
-  <si>
-    <t>307540817162</t>
-  </si>
-  <si>
-    <t>02730534</t>
-  </si>
-  <si>
-    <t>583518656117</t>
-  </si>
-  <si>
-    <t>06277782</t>
-  </si>
-  <si>
-    <t>306556345437</t>
-  </si>
-  <si>
-    <t>40136200</t>
-  </si>
-  <si>
-    <t>139352725872</t>
-  </si>
-  <si>
-    <t>64705883</t>
-  </si>
-  <si>
-    <t>769161867304</t>
-  </si>
-  <si>
-    <t>43853787</t>
-  </si>
-  <si>
-    <t>017000745243</t>
-  </si>
-  <si>
-    <t>66633542</t>
-  </si>
-  <si>
-    <t>675811201064</t>
-  </si>
-  <si>
-    <t>76782973</t>
-  </si>
-  <si>
-    <t>307832318347</t>
-  </si>
-  <si>
-    <t>00121466</t>
-  </si>
-  <si>
-    <t>850226625236</t>
-  </si>
-  <si>
-    <t>02273151</t>
-  </si>
-  <si>
-    <t>395045659504</t>
-  </si>
-  <si>
-    <t>80067855</t>
-  </si>
-  <si>
-    <t>344675698024</t>
-  </si>
-  <si>
-    <t>27941670</t>
-  </si>
-  <si>
-    <t>249794064707</t>
-  </si>
-  <si>
-    <t>74486736</t>
-  </si>
-  <si>
-    <t>958395467846</t>
-  </si>
-  <si>
-    <t>77386123</t>
-  </si>
-  <si>
-    <t>540273065727</t>
-  </si>
-  <si>
-    <t>73858855</t>
-  </si>
-  <si>
-    <t>641654643580</t>
-  </si>
-  <si>
-    <t>70313004</t>
-  </si>
-  <si>
-    <t>493451518755</t>
-  </si>
-  <si>
-    <t>22382105</t>
-  </si>
-  <si>
-    <t>272374881551</t>
-  </si>
-  <si>
-    <t>14254484</t>
-  </si>
-  <si>
-    <t>441451022151</t>
-  </si>
-  <si>
-    <t>63242642</t>
-  </si>
-  <si>
-    <t>037330529635</t>
-  </si>
-  <si>
-    <t>89701124</t>
-  </si>
-  <si>
-    <t>428199255384</t>
-  </si>
-  <si>
-    <t>12901908</t>
-  </si>
-  <si>
-    <t>740502313834</t>
-  </si>
-  <si>
-    <t>02715564</t>
-  </si>
-  <si>
-    <t>850564738821</t>
-  </si>
-  <si>
-    <t>47344216</t>
-  </si>
-  <si>
-    <t>724721841100</t>
-  </si>
-  <si>
-    <t>c9c585db-44df-4e3f-a49f-feac2d5504bc</t>
-  </si>
-  <si>
-    <t>18136217</t>
-  </si>
-  <si>
-    <t>802224663250</t>
-  </si>
-  <si>
-    <t>79802815</t>
-  </si>
-  <si>
-    <t>722353547708</t>
-  </si>
-  <si>
-    <t>87422186</t>
-  </si>
-  <si>
-    <t>240224001765</t>
-  </si>
-  <si>
-    <t>66016886</t>
-  </si>
-  <si>
-    <t>081721171076</t>
-  </si>
-  <si>
-    <t>30805505</t>
-  </si>
-  <si>
-    <t>342662454683</t>
-  </si>
-  <si>
-    <t>40118830</t>
-  </si>
-  <si>
-    <t>211421448235</t>
-  </si>
-  <si>
-    <t>1ba1f7e1-aac8-4286-9747-ab96fc6ae8ae</t>
-  </si>
-  <si>
-    <t>17257054</t>
-  </si>
-  <si>
-    <t>317704951374</t>
-  </si>
-  <si>
-    <t>07751787</t>
-  </si>
-  <si>
-    <t>765448496014</t>
-  </si>
-  <si>
-    <t>83272078</t>
-  </si>
-  <si>
-    <t>673734370786</t>
-  </si>
-  <si>
-    <t>32048763</t>
-  </si>
-  <si>
-    <t>007354764171</t>
-  </si>
-  <si>
-    <t>82303801</t>
-  </si>
-  <si>
-    <t>996141587051</t>
-  </si>
-  <si>
-    <t>86405243</t>
-  </si>
-  <si>
-    <t>727301124870</t>
-  </si>
-  <si>
-    <t>85263874</t>
-  </si>
-  <si>
-    <t>000357914152</t>
-  </si>
-  <si>
-    <t>51577213</t>
-  </si>
-  <si>
-    <t>400308138041</t>
-  </si>
-  <si>
-    <t>79945631</t>
-  </si>
-  <si>
-    <t>724101344348</t>
-  </si>
-  <si>
-    <t>45486621</t>
-  </si>
-  <si>
-    <t>660775924823</t>
-  </si>
-  <si>
-    <t>66866086</t>
-  </si>
-  <si>
-    <t>450845473768</t>
-  </si>
-  <si>
-    <t>07668172</t>
-  </si>
-  <si>
-    <t>186566274871</t>
-  </si>
-  <si>
-    <t>67538164</t>
-  </si>
-  <si>
-    <t>582162255388</t>
-  </si>
-  <si>
-    <t>84524426</t>
-  </si>
-  <si>
-    <t>356520467555</t>
+    <t>ef977a42-8356-45a0-aa59-64e991dcc13d</t>
+  </si>
+  <si>
+    <t>RegisterMilkingOrDryCattle_Inseminated</t>
+  </si>
+  <si>
+    <t>RegisterMilkingOrDryCattle_Pregnant</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>RegisterMilkingOrDryCattle_Dry</t>
+  </si>
+  <si>
+    <t>08555004</t>
+  </si>
+  <si>
+    <t>796805618055</t>
+  </si>
+  <si>
+    <t>73375186</t>
+  </si>
+  <si>
+    <t>761184497461</t>
+  </si>
+  <si>
+    <t>76764987</t>
+  </si>
+  <si>
+    <t>616411760694</t>
+  </si>
+  <si>
+    <t>64701621</t>
+  </si>
+  <si>
+    <t>517287408804</t>
+  </si>
+  <si>
+    <t>71110713</t>
+  </si>
+  <si>
+    <t>900821554893</t>
+  </si>
+  <si>
+    <t>72031426</t>
+  </si>
+  <si>
+    <t>130856713618</t>
+  </si>
+  <si>
+    <t>74678785</t>
+  </si>
+  <si>
+    <t>840428818113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -583,9 +298,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -651,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -703,7 +417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -904,262 +618,465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AE38FF-B2DA-4E13-8FCB-64366024D058}">
-  <dimension ref="A1:AA4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="17" max="18" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="32.7109375" collapsed="true"/>
     <col min="20" max="23" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="27.42578125" collapsed="true"/>
     <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="3" t="str">
         <f>GeneralData!$B$1</f>
         <v>69693636</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="3" t="str">
         <f>GeneralData!$B$2</f>
         <v>550713558260</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>44252</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="4" t="str">
+      <c r="W2" s="5"/>
+      <c r="X2" s="3" t="str">
         <f>GeneralData!$B$3</f>
         <v>5ffefa0c-cad2-4d87-a242-b013b3bce836</v>
       </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="3"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <f>GeneralData!$B$1</f>
         <v>42256808</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <f>GeneralData!$B$2</f>
         <v>834971285745</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>44252</v>
       </c>
       <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>44562</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="5"/>
+      <c r="V3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6" t="str">
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="str">
         <f>GeneralData!$B$3</f>
         <v>5ffefa0c-cad2-4d87-a242-b013b3bce836</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="3"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="R4" s="5"/>
-      <c r="S4" s="3"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>GeneralData!$B$1</f>
+        <v>15124978</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>GeneralData!$B$2</f>
+        <v>316942433730</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4">
+        <v>44252</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="4">
+        <v>44287</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="str">
+        <f>GeneralData!$B$3</f>
+        <v>ef977a42-8356-45a0-aa59-64e991dcc13d</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>GeneralData!$B$1</f>
+        <v>76631636</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>GeneralData!$B$2</f>
+        <v>621775584050</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4">
+        <v>43886</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4">
+        <v>44438</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="str">
+        <f>GeneralData!$B$3</f>
+        <v>ef977a42-8356-45a0-aa59-64e991dcc13d</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>GeneralData!$B$1</f>
+        <v>28250812</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>GeneralData!$B$2</f>
+        <v>695445030622</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4">
+        <v>43886</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="4">
+        <v>44742</v>
+      </c>
+      <c r="X6" s="5" t="str">
+        <f>GeneralData!$B$3</f>
+        <v>ef977a42-8356-45a0-aa59-64e991dcc13d</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,40 +1085,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6BD7CC-1665-481C-AFB6-71626A91B9D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>157</v>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>130</v>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
